--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Fall.121119-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carter.Fall.121119-2.xlsx_with_dialog_acts.xlsx
@@ -965,12 +965,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2765,12 +2765,12 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3173,12 +3173,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3921,12 +3921,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4261,12 +4261,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4533,12 +4533,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4737,12 +4737,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5383,12 +5383,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5417,12 +5417,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5553,12 +5553,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5859,12 +5859,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5961,12 +5961,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6131,12 +6131,12 @@
       <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6199,12 +6199,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6503,12 +6503,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7353,12 +7353,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7693,12 +7693,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7795,12 +7795,12 @@
       <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8169,12 +8169,12 @@
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8203,12 +8203,12 @@
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9155,12 +9155,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9189,12 +9189,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9257,12 +9257,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
